--- a/backend/hct_mis_api/apps/payment/tests/test_file/import_file_with_existing_delivery_date.xlsx
+++ b/backend/hct_mis_api/apps/payment/tests/test_file/import_file_with_existing_delivery_date.xlsx
@@ -46,13 +46,13 @@
     <t>delivery_date</t>
   </si>
   <si>
-    <t>RCPT-0060-23-0.000.001</t>
+    <t>RCPT-0060-24-0.000.001</t>
   </si>
   <si>
-    <t>RCPT-0060-23-0.000.002</t>
+    <t>RCPT-0060-24-0.000.002</t>
   </si>
   <si>
-    <t>RCPT-0060-23-0.000.003</t>
+    <t>RCPT-0060-24-0.000.003</t>
   </si>
 </sst>
 </file>
@@ -1416,7 +1416,7 @@
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="10" width="20" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="30.1719" style="1" customWidth="1"/>
     <col min="12" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
